--- a/サンプルプロジェクト/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/js/JavaScript利用可能API一覧.xlsx
+++ b/サンプルプロジェクト/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/js/JavaScript利用可能API一覧.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359861E3-D369-443C-8D4F-115A70C5A53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="28515" windowHeight="15645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JavaScript利用可能API一覧" sheetId="1" r:id="rId1"/>
@@ -1343,7 +1344,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -1803,18 +1804,49 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{41AA94CE-3AAD-4447-9132-F20E97B542D0}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1856,7 +1888,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1889,9 +1921,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1924,6 +1973,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2099,7 +2165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F252"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -4538,7 +4604,7 @@
       <c r="F252" s="43"/>
     </row>
   </sheetData>
-  <sortState ref="E13:E31">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E13:E31">
     <sortCondition ref="E13:E31"/>
   </sortState>
   <phoneticPr fontId="1"/>

--- a/サンプルプロジェクト/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/js/JavaScript利用可能API一覧.xlsx
+++ b/サンプルプロジェクト/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/js/JavaScript利用可能API一覧.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359861E3-D369-443C-8D4F-115A70C5A53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="28515" windowHeight="15645"/>
   </bookViews>
   <sheets>
     <sheet name="JavaScript利用可能API一覧" sheetId="1" r:id="rId1"/>
@@ -1344,7 +1343,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -1804,49 +1803,18 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{41AA94CE-3AAD-4447-9132-F20E97B542D0}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1888,7 +1856,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1921,26 +1889,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1973,23 +1924,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2165,7 +2099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F252"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -4604,7 +4538,7 @@
       <c r="F252" s="43"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E13:E31">
+  <sortState ref="E13:E31">
     <sortCondition ref="E13:E31"/>
   </sortState>
   <phoneticPr fontId="1"/>
